--- a/dataSources/WSR/FORM_PF.xlsx
+++ b/dataSources/WSR/FORM_PF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D770FB-E8F7-4AA6-AA5E-9C7950D11A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{25D770FB-E8F7-4AA6-AA5E-9C7950D11A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6227883B-074D-4E3B-8E19-A0CC19A8D86B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="18 Dec 2023" sheetId="12" r:id="rId10"/>
     <sheet name="26 Dec 2023" sheetId="13" r:id="rId11"/>
     <sheet name="2 Jan 2024" sheetId="14" r:id="rId12"/>
+    <sheet name="8 Jan 2024" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="112">
   <si>
     <t>Task Name</t>
   </si>
@@ -576,12 +577,21 @@
   <si>
     <t>1. Automation Scripts review</t>
   </si>
+  <si>
+    <t>Test Automation execution</t>
+  </si>
+  <si>
+    <t>Scripts Execution of Item B,Item C, Item E, Item H surveillance</t>
+  </si>
+  <si>
+    <t> Automation Demo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,11 +850,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -854,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -945,27 +957,34 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,40 +1270,40 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="22.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="37.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -1411,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="36" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
@@ -1456,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="45" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="39" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
@@ -1532,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1557,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1574,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1584,7 +1603,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1592,7 +1611,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1600,7 +1619,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1608,7 +1627,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1616,7 +1635,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1624,7 +1643,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1632,7 +1651,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1640,7 +1659,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1648,7 +1667,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1656,7 +1675,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1678,35 +1697,35 @@
       <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +1797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="30.6">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1848,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="59.45">
       <c r="A3" s="10" t="s">
         <v>99</v>
       </c>
@@ -1874,7 +1893,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="F4" s="1"/>
@@ -1911,7 +1930,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="73.900000000000006">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -1942,7 +1961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" ht="30.6">
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1967,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="59.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -1984,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1992,7 +2011,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2000,7 +2019,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2008,7 +2027,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2016,7 +2035,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2024,7 +2043,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2032,7 +2051,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2040,7 +2059,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2048,7 +2067,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2056,7 +2075,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2064,7 +2083,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2081,42 +2100,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4E417-175E-4C67-8EA4-000367E8D86B}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="12.44140625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.85546875" style="2"/>
+    <col min="28" max="28" width="12.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="19.149999999999999">
       <c r="A2" s="10" t="s">
         <v>102</v>
       </c>
@@ -2209,7 +2228,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="45" t="s">
         <v>103</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -2239,8 +2258,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:29" ht="30.6">
+      <c r="A3" s="44" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="4">
@@ -2260,7 +2279,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="45" t="s">
         <v>105</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2288,7 +2307,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="30.6">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
@@ -2306,7 +2325,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="45" t="s">
         <v>106</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2335,7 +2354,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -2366,7 +2385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" ht="19.149999999999999">
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2391,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="30.6">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -2407,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2415,7 +2434,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2423,7 +2442,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2431,7 +2450,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2439,7 +2458,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2447,7 +2466,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2455,7 +2474,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2463,7 +2482,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2471,7 +2490,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2479,7 +2498,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2487,7 +2506,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2504,42 +2523,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9036F9E-58A1-4F5E-9645-974F659AB416}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.109375" style="2"/>
-    <col min="28" max="28" width="12.44140625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="12.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,8 +2630,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:29" ht="19.149999999999999">
+      <c r="A2" s="46" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="4">
@@ -2662,8 +2681,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
+    <row r="3" spans="1:29" ht="30.6">
+      <c r="A3" s="44"/>
       <c r="B3" s="4"/>
       <c r="G3" s="10" t="s">
         <v>100</v>
@@ -2673,7 +2692,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="49"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -2697,7 +2716,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="30.6">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6"/>
@@ -2710,7 +2729,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="49"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2735,7 +2754,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -2766,7 +2785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" ht="19.149999999999999">
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2791,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="30.6">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -2808,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2816,7 +2835,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2824,7 +2843,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2832,7 +2851,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2840,7 +2859,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2848,7 +2867,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2856,7 +2875,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2864,7 +2883,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2872,7 +2891,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2880,7 +2899,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2888,7 +2907,407 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8808C-400A-4132-8AE5-04ECCB65431E}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="S5" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="12.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="52.5">
+      <c r="A2" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="49">
+        <v>2</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="52"/>
+      <c r="J2" s="22"/>
+      <c r="L2" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="55">
+        <v>45302</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="40">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="40">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="30.75">
+      <c r="A3" s="44"/>
+      <c r="B3" s="4"/>
+      <c r="D3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="49">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="45"/>
+      <c r="N3" s="54"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="40">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="30.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="45.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="40">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="40">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17.25">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30.75">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2908,40 +3327,40 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z10"/>
+    <sheetView tabSelected="1" topLeftCell="U6" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="40.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -3066,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="46.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -3117,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="54.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>58</v>
       </c>
@@ -3168,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -3205,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="11"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3231,15 +3650,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
       <c r="AA7" s="41"/>
       <c r="AB7" s="39" t="s">
         <v>48</v>
@@ -3248,17 +3665,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-    </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -3266,7 +3681,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -3274,7 +3689,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -3282,7 +3697,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -3290,7 +3705,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3298,7 +3713,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3306,7 +3721,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3314,7 +3729,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3322,7 +3737,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3330,7 +3745,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3355,36 +3770,36 @@
       <selection activeCell="Y7" sqref="Y7:Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="39.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -3509,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="52.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
@@ -3560,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="52.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>58</v>
       </c>
@@ -3611,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="52.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -3652,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="27"/>
@@ -3677,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -3694,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -3704,7 +4119,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -3712,7 +4127,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -3720,7 +4135,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -3728,7 +4143,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -3736,7 +4151,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3744,7 +4159,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3752,7 +4167,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3760,7 +4175,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3768,7 +4183,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3776,7 +4191,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3797,40 +4212,40 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R2" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z10"/>
+    <sheetView topLeftCell="S5" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +4317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="37.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -3955,7 +4370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="33" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>71</v>
       </c>
@@ -4004,7 +4419,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="31.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>72</v>
       </c>
@@ -4053,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -4094,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4119,15 +4534,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
       <c r="AA7" s="41"/>
       <c r="AB7" s="39" t="s">
         <v>48</v>
@@ -4136,43 +4549,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:29">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="AA9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -4180,7 +4573,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -4188,7 +4581,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -4196,7 +4589,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4204,7 +4597,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4212,7 +4605,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4220,7 +4613,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4228,7 +4621,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4236,7 +4629,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4258,40 +4651,40 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z9"/>
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375"/>
-    <col min="7" max="7" width="73.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375"/>
-    <col min="12" max="12" width="89.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" customWidth="1"/>
-    <col min="17" max="17" width="9.109375"/>
-    <col min="18" max="18" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.109375" customWidth="1"/>
-    <col min="28" max="28" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625"/>
+    <col min="12" max="12" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.140625"/>
+    <col min="18" max="18" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4363,7 +4756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29">
       <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
@@ -4414,7 +4807,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29">
       <c r="A3" s="35" t="s">
         <v>76</v>
       </c>
@@ -4463,7 +4856,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29">
       <c r="A4" s="34" t="s">
         <v>79</v>
       </c>
@@ -4508,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="D5" s="6" t="s">
@@ -4549,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29">
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -4574,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29">
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
@@ -4589,34 +4982,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
-      <c r="AA8" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:29">
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:29">
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
@@ -4624,7 +5006,7 @@
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29">
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
@@ -4632,7 +5014,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29">
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
@@ -4640,7 +5022,7 @@
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
       <c r="T13" s="32"/>
@@ -4648,7 +5030,7 @@
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29">
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
@@ -4656,7 +5038,7 @@
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
       <c r="T15" s="32"/>
@@ -4664,7 +5046,7 @@
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
@@ -4672,7 +5054,7 @@
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
     </row>
-    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23">
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
@@ -4680,7 +5062,7 @@
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
     </row>
-    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23">
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
@@ -4699,44 +5081,44 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y17" activeCellId="1" sqref="Y7:Z9 Y17"/>
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="16.88671875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.85546875" style="2"/>
+    <col min="28" max="28" width="16.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4801,14 +5183,14 @@
         <v>20</v>
       </c>
       <c r="AA1" s="38"/>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="42" t="s">
         <v>21</v>
       </c>
       <c r="AC1" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -4852,14 +5234,14 @@
         <v>0</v>
       </c>
       <c r="AA2" s="41"/>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="43" t="s">
         <v>33</v>
       </c>
       <c r="AC2" s="40">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -4901,14 +5283,14 @@
         <v>0</v>
       </c>
       <c r="AA3" s="41"/>
-      <c r="AB3" s="45" t="s">
+      <c r="AB3" s="43" t="s">
         <v>38</v>
       </c>
       <c r="AC3" s="40">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1" t="s">
@@ -4938,14 +5320,14 @@
         <v>0</v>
       </c>
       <c r="AA4" s="41"/>
-      <c r="AB4" s="45" t="s">
+      <c r="AB4" s="43" t="s">
         <v>42</v>
       </c>
       <c r="AC4" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -4975,14 +5357,14 @@
         <v>0</v>
       </c>
       <c r="AA5" s="41"/>
-      <c r="AB5" s="45" t="s">
+      <c r="AB5" s="43" t="s">
         <v>45</v>
       </c>
       <c r="AC5" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5000,14 +5382,14 @@
         <v>0</v>
       </c>
       <c r="AA6" s="41"/>
-      <c r="AB6" s="45" t="s">
+      <c r="AB6" s="43" t="s">
         <v>47</v>
       </c>
       <c r="AC6" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -5017,14 +5399,14 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="45" t="s">
+      <c r="AB7" s="43" t="s">
         <v>48</v>
       </c>
       <c r="AC7" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -5033,17 +5415,12 @@
       <c r="W8" s="1"/>
       <c r="Y8"/>
       <c r="Z8"/>
-      <c r="AA8" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -5051,10 +5428,11 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="AA9"/>
-      <c r="AB9" s="47"/>
+      <c r="AB9"/>
       <c r="AC9"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD9"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -5066,8 +5444,9 @@
       <c r="AA10"/>
       <c r="AB10"/>
       <c r="AC10"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD10"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5079,48 +5458,69 @@
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD11"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+    </row>
+    <row r="17" spans="18:23">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5128,7 +5528,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5153,40 +5553,40 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="2"/>
-    <col min="28" max="28" width="13.33203125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="2"/>
+    <col min="28" max="28" width="13.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5258,7 +5658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="16.899999999999999">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -5309,7 +5709,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="28.9">
       <c r="A3" s="7" t="s">
         <v>85</v>
       </c>
@@ -5358,7 +5758,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="28.9">
       <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
@@ -5403,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.15">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -5444,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5469,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="28.9">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -5484,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -5492,7 +5892,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -5500,7 +5900,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -5508,7 +5908,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5516,7 +5916,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5524,7 +5924,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5532,7 +5932,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5540,7 +5940,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5548,7 +5948,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5556,7 +5956,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5564,7 +5964,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5588,35 +5988,35 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5688,7 +6088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -5737,7 +6137,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
@@ -5786,7 +6186,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
@@ -5827,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="9" t="s">
@@ -5860,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="9" t="s">
         <v>94</v>
       </c>
@@ -5887,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="G7" s="9" t="s">
         <v>95</v>
       </c>
@@ -5908,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -5916,7 +6316,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -5924,7 +6324,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -5932,7 +6332,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5940,7 +6340,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5948,7 +6348,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5956,7 +6356,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5964,7 +6364,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5972,7 +6372,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5980,7 +6380,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5988,7 +6388,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6012,35 +6412,35 @@
       <selection activeCell="Y7" sqref="Y7:Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6112,7 +6512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="30.6">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -6163,7 +6563,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="59.45">
       <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
@@ -6208,7 +6608,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
@@ -6253,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="73.900000000000006">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10" t="s">
@@ -6288,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" ht="30.6">
       <c r="G6" s="10" t="s">
         <v>94</v>
       </c>
@@ -6317,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="59.45">
       <c r="G7" s="10" t="s">
         <v>95</v>
       </c>
@@ -6338,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -6346,7 +6746,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -6354,7 +6754,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -6362,7 +6762,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -6370,7 +6770,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6378,7 +6778,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6386,7 +6786,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6394,7 +6794,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6402,7 +6802,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6410,7 +6810,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:23" ht="14.45">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6418,7 +6818,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:23" ht="14.45">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6435,8 +6835,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
     <xsd:import namespace="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
     <xsd:element name="properties">
@@ -6450,6 +6865,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6473,6 +6889,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6605,53 +7026,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32881B79-6458-48DF-8FD1-7CE60E965FF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1904288-802C-4509-AC0B-777D55FF85D4}"/>
 </file>
--- a/dataSources/WSR/FORM_PF.xlsx
+++ b/dataSources/WSR/FORM_PF.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27316"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{25D770FB-E8F7-4AA6-AA5E-9C7950D11A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6227883B-074D-4E3B-8E19-A0CC19A8D86B}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{25D770FB-E8F7-4AA6-AA5E-9C7950D11A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBBAA86C-6A74-4842-A688-FE9AA9233119}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2 Oct 2023" sheetId="11" r:id="rId1"/>
-    <sheet name="9 Oct 2023" sheetId="10" r:id="rId2"/>
-    <sheet name="16 Oct 2023" sheetId="9" r:id="rId3"/>
-    <sheet name="23 Oct 2023" sheetId="8" r:id="rId4"/>
-    <sheet name="30 Oct 2023" sheetId="7" r:id="rId5"/>
-    <sheet name="6 Nov 2023" sheetId="1" r:id="rId6"/>
-    <sheet name="13 Nov 2023" sheetId="2" r:id="rId7"/>
-    <sheet name="20 Nov 2023" sheetId="5" r:id="rId8"/>
-    <sheet name="27 Nov 2023" sheetId="6" r:id="rId9"/>
-    <sheet name="18 Dec 2023" sheetId="12" r:id="rId10"/>
-    <sheet name="26 Dec 2023" sheetId="13" r:id="rId11"/>
-    <sheet name="2 Jan 2024" sheetId="14" r:id="rId12"/>
-    <sheet name="8 Jan 2024" sheetId="15" r:id="rId13"/>
+    <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
+    <sheet name="9 Oct 2023" sheetId="9" r:id="rId2"/>
+    <sheet name="16 Oct 2023" sheetId="8" r:id="rId3"/>
+    <sheet name="23 Oct 2023" sheetId="7" r:id="rId4"/>
+    <sheet name="30 Oct 2023" sheetId="1" r:id="rId5"/>
+    <sheet name="6 Nov 2023" sheetId="2" r:id="rId6"/>
+    <sheet name="13 Nov 2023" sheetId="5" r:id="rId7"/>
+    <sheet name="20 Nov 2023" sheetId="6" r:id="rId8"/>
+    <sheet name="11 Dec 2023" sheetId="12" r:id="rId9"/>
+    <sheet name="18 Dec 2023" sheetId="13" r:id="rId10"/>
+    <sheet name="26 Dec 2023" sheetId="14" r:id="rId11"/>
+    <sheet name="2 Jan 2024" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="104">
   <si>
     <t>Task Name</t>
   </si>
@@ -122,7 +121,267 @@
     <t>1.Standup /Internal/Dev calls</t>
   </si>
   <si>
+    <t> 9.5</t>
+  </si>
+  <si>
     <t>Eswara Rao Kanakala</t>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Standup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> Calls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Dev Calls</t>
+    </r>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Testing Extraordinary investment loss</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13- Oct</t>
+    </r>
+  </si>
+  <si>
+    <t>No defect logged for the week</t>
+  </si>
+  <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
+    <r>
+      <t>2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Scenarios, Test Cases Preparation and review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Plan Preparation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15.5</t>
+    </r>
+  </si>
+  <si>
+    <t>Samikruth Reddy</t>
+  </si>
+  <si>
+    <t>2. Test cases, Scenarios and Test Plan Preparation &amp;Review</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
+    <t>3. Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vignesh </t>
+  </si>
+  <si>
+    <t>Test cases, Scenarios and Test Plan Preparation &amp;Review</t>
+  </si>
+  <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
+    <t>Meenakshi</t>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>2. Preparing End to End Scenarios and Test Cases Execution.</t>
+  </si>
+  <si>
+    <t>2. Extraordinary investment loss test cases execution</t>
+  </si>
+  <si>
+    <t>3. Working on Environment  setup &amp; Automation</t>
+  </si>
+  <si>
+    <t>Documentation for Extraordinary investment loss</t>
+  </si>
+  <si>
+    <t>Test Artifact review</t>
+  </si>
+  <si>
+    <t>Yet to start</t>
+  </si>
+  <si>
+    <t>Testing scenarios</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>23-Oct</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Preparing End to End Scenarios and Test Cases for new surveillance</t>
+  </si>
+  <si>
+    <r>
+      <t>3. Automation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> framework</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Working on Environment setup &amp; Automation</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>4. Test Artifact review</t>
+  </si>
+  <si>
+    <t>2. Preparing End to End Scenarios, Test Cases and documentation</t>
+  </si>
+  <si>
+    <t>ITEM- C  test Cases Execution &amp;Documentation</t>
+  </si>
+  <si>
+    <t>Yet to Start</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> Automation POC</t>
+    </r>
+  </si>
+  <si>
+    <t>4. ITEM- C Test Scenario and test Cases Preparation</t>
   </si>
   <si>
     <r>
@@ -160,286 +419,6 @@
     </r>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Test Scenarios, Test Cases Review</t>
-  </si>
-  <si>
-    <t>InProgress</t>
-  </si>
-  <si>
-    <t> 06- Oct</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>No defect logged for the week</t>
-  </si>
-  <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
-  </si>
-  <si>
-    <t>2. Application Hands on Experience</t>
-  </si>
-  <si>
-    <t>Samikruth Reddy</t>
-  </si>
-  <si>
-    <t>2. Explore Application: Completed
-     Test Scenario, Test Cases Preparation: Completed
-     Test Plan Preparation: InProgress</t>
-  </si>
-  <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
-    <t>3 Test Scenarios, Test Cases Preparation and review</t>
-  </si>
-  <si>
-    <t>Meenakshi</t>
-  </si>
-  <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
-  </si>
-  <si>
-    <t>4. Test Plan Preparation</t>
-  </si>
-  <si>
-    <t>Automation execution</t>
-  </si>
-  <si>
-    <t>Total automation execution</t>
-  </si>
-  <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total bugs</t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
-  </si>
-  <si>
-    <t> 9.5</t>
-  </si>
-  <si>
-    <r>
-      <t>1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Standup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> Calls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/Dev Calls</t>
-    </r>
-  </si>
-  <si>
-    <t>Testing Extraordinary investment loss</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>13- Oct</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Test Scenarios, Test Cases Preparation and review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Test Plan Preparation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>15.5</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Test cases, Scenarios and Test Plan Preparation &amp;Review</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>3. Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vignesh </t>
-  </si>
-  <si>
-    <t>Test cases, Scenarios and Test Plan Preparation &amp;Review</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>2. Preparing End to End Scenarios and Test Cases Execution.</t>
-  </si>
-  <si>
-    <t>2. Extraordinary investment loss test cases execution</t>
-  </si>
-  <si>
-    <t>3. Working on Environment  setup &amp; Automation</t>
-  </si>
-  <si>
-    <t>Documentation for Extraordinary investment loss</t>
-  </si>
-  <si>
-    <t>Test Artifact review</t>
-  </si>
-  <si>
-    <t>Yet to start</t>
-  </si>
-  <si>
-    <t>Testing scenarios</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>23-Oct</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Preparing End to End Scenarios and Test Cases for new surveillance</t>
-  </si>
-  <si>
-    <r>
-      <t>3. Automation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> framework</t>
-    </r>
-  </si>
-  <si>
-    <t>3. Working on Environment setup &amp; Automation</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>4. Test Artifact review</t>
-  </si>
-  <si>
-    <t>2. Preparing End to End Scenarios, Test Cases and documentation</t>
-  </si>
-  <si>
-    <t>ITEM- C  test Cases Execution &amp;Documentation</t>
-  </si>
-  <si>
-    <t>Yet to Start</t>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> Automation POC</t>
-    </r>
-  </si>
-  <si>
-    <t>4. ITEM- C Test Scenario and test Cases Preparation</t>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -471,9 +450,6 @@
     <t>Automation POC</t>
   </si>
   <si>
-    <t>No defects logged for the week</t>
-  </si>
-  <si>
     <t>2. Item-c Test execution and documentation</t>
   </si>
   <si>
@@ -517,9 +493,6 @@
   </si>
   <si>
     <t>6. Test Execution Documentation for ITEM-E &amp;H</t>
-  </si>
-  <si>
-    <t>No defects logged</t>
   </si>
   <si>
     <t>1. Automation of Item B surveillance E2E Scenarios</t>
@@ -682,7 +655,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,12 +666,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -866,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -895,15 +862,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,19 +1222,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6CDEA4-CE6E-42B2-9947-35FE7341C961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F5C37F-DBC5-41E0-B586-C385A095F1DE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1304,7 +1262,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1361,53 +1319,51 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="37.5" customHeight="1">
+    <row r="2" spans="1:29" ht="40.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="12">
-        <v>6</v>
+      <c r="B2" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="N2" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1416,44 +1372,50 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="36" customHeight="1">
+      <c r="AC2" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="46.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="12">
-        <v>7.5</v>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="3"/>
+      <c r="L3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1461,40 +1423,50 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="45" customHeight="1">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="54.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="12">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B4" s="16">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1502,26 +1474,28 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="39" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="12">
-        <v>2.5</v>
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1537,21 +1511,22 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="28.9">
+      <c r="A6" s="11"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1562,17 +1537,17 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1583,13 +1558,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1600,8 +1573,6 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
     </row>
     <row r="9" spans="1:29" ht="14.45">
       <c r="R9" s="1"/>
@@ -1690,418 +1661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEEC7C6-D1C2-4072-BE05-7D44D58097FE}">
-  <dimension ref="A1:AC18"/>
-  <sheetViews>
-    <sheetView topLeftCell="R2" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="30.6">
-      <c r="A2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="40">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="59.45">
-      <c r="A3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="4">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4">
-        <v>17</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>86</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="73.900000000000006">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="30.6">
-      <c r="G6" s="10"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="59.45">
-      <c r="G7" s="10"/>
-      <c r="H7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.45">
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="14.45">
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" ht="14.45">
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="14.45">
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="14.45">
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.45">
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.45">
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.45">
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.45">
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="18:23" ht="14.45">
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="18:23" ht="14.45">
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4E417-175E-4C67-8EA4-000367E8D86B}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2193,97 +1757,97 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="19.149999999999999">
       <c r="A2" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="45" t="s">
-        <v>103</v>
+      <c r="L2" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30.6">
-      <c r="A3" s="44" t="s">
-        <v>104</v>
+      <c r="A3" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="B3" s="4">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>35</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="45" t="s">
-        <v>105</v>
+      <c r="L3" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -2293,17 +1857,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
@@ -2311,25 +1875,25 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="45" t="s">
-        <v>106</v>
+      <c r="L4" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2340,17 +1904,17 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
         <v>86</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>172</v>
       </c>
     </row>
@@ -2371,17 +1935,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
         <v>25</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>35</v>
       </c>
     </row>
@@ -2396,17 +1960,17 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2419,10 +1983,10 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2519,12 +2083,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9036F9E-58A1-4F5E-9645-974F659AB416}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2616,83 +2180,83 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="19.149999999999999">
-      <c r="A2" s="46" t="s">
-        <v>107</v>
+      <c r="A2" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30.6">
-      <c r="A3" s="44"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="4"/>
       <c r="G3" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="45"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -2702,17 +2266,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
@@ -2722,14 +2286,14 @@
       <c r="D4" s="6"/>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="45"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2740,17 +2304,17 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>172</v>
       </c>
     </row>
@@ -2771,17 +2335,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
         <v>8</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>43</v>
       </c>
     </row>
@@ -2796,17 +2360,17 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2819,11 +2383,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2920,12 +2484,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8808C-400A-4132-8AE5-04ECCB65431E}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="S5" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R5"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2966,40 +2530,40 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="23" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="23" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -3017,101 +2581,103 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="52.5">
-      <c r="A2" s="47" t="s">
-        <v>109</v>
+      <c r="A2" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="D2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="46">
         <v>2</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="22"/>
-      <c r="L2" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="55">
+      <c r="G2" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="19"/>
+      <c r="L2" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="52">
         <v>45302</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="28"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="19"/>
+      <c r="R2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="25"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30.75">
-      <c r="A3" s="44"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="4"/>
-      <c r="D3" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="D3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="46">
         <v>1</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="L3" s="45"/>
-      <c r="N3" s="54"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="28"/>
+      <c r="L3" s="42"/>
+      <c r="N3" s="51"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
@@ -3128,23 +2694,23 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="28"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>172</v>
       </c>
     </row>
@@ -3159,23 +2725,23 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="28"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
         <v>30</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>73</v>
       </c>
     </row>
@@ -3188,23 +2754,23 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="R6" s="27"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3219,11 +2785,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3321,452 +2887,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F5C37F-DBC5-41E0-B586-C385A095F1DE}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:AC18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U6" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="40.5" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="46.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4">
-        <v>16</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="54.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="19">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="L4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72">
-      <c r="A5" s="11"/>
-      <c r="B5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.9">
-      <c r="A6" s="11"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6">
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.45">
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="14.45">
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" ht="14.45">
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="14.45">
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="14.45">
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.45">
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.45">
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.45">
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.45">
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="18:23" ht="14.45">
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="18:23" ht="14.45">
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C207DCB4-F45C-418A-B0C5-65548C424187}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7:Z10"/>
     </sheetView>
   </sheetViews>
@@ -3818,19 +2945,19 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -3857,17 +2984,17 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3875,33 +3002,33 @@
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="14">
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>30</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="L2" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="L2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="25"/>
       <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3910,50 +3037,50 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="52.5" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="17">
+        <v>56</v>
+      </c>
+      <c r="B3" s="14">
         <v>55</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>35</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="L3" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="L3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -3961,50 +3088,50 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="52.5" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="17">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>20</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="L4" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="L4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="25"/>
       <c r="O4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -4012,17 +3139,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4030,22 +3157,22 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
       <c r="L5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="25"/>
       <c r="O5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -4053,42 +3180,42 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4101,11 +3228,11 @@
       <c r="W7" s="1"/>
       <c r="Y7"/>
       <c r="Z7"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4205,14 +3332,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D35820-B04E-4DCC-90DF-B5CA034CDCD6}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="S5" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
@@ -4303,17 +3430,17 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4325,27 +3452,27 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
@@ -4356,46 +3483,46 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
+      <c r="Z2" s="37">
         <v>86</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" s="11">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>15</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -4405,46 +3532,46 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
         <v>86</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>18</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -4454,17 +3581,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4472,16 +3599,16 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4495,17 +3622,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4520,17 +3647,17 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4541,11 +3668,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4643,14 +3770,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FFC9B1-A559-4D99-A29E-A69EB31BE7CE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
@@ -4685,390 +3812,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="29" t="s">
         <v>11</v>
       </c>
       <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="29">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="32">
+        <v>25</v>
+      </c>
+      <c r="E2" s="29">
         <v>5</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32"/>
+      <c r="G2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
       <c r="L2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="32"/>
-      <c r="R2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="30"/>
+      <c r="O2" s="29"/>
+      <c r="R2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="Y2" s="39" t="s">
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="32">
+      <c r="A3" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="29">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="32">
+        <v>36</v>
+      </c>
+      <c r="E3" s="29">
         <v>16</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="G3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="L3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+        <v>70</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="32">
+      <c r="A4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="29">
         <v>31</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="32">
+      <c r="D4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="29">
         <v>16</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="G4" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="G5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
     </row>
     <row r="17" spans="18:23">
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
     </row>
     <row r="18" spans="18:23">
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5076,14 +4203,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
@@ -5176,17 +4303,17 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="42" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5198,24 +4325,24 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
@@ -5227,46 +4354,46 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="43" t="s">
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4">
         <v>23.5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -5276,17 +4403,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>86</v>
       </c>
     </row>
@@ -5294,7 +4421,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>10.5</v>
@@ -5313,17 +4440,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5331,7 +4458,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -5350,17 +4477,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5375,17 +4502,17 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5398,11 +4525,11 @@
       <c r="W7" s="1"/>
       <c r="Y7"/>
       <c r="Z7"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5542,15 +4669,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72B2673-BF78-4B8D-AE8B-BAE125E9ED60}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z9"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5644,17 +4771,17 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5666,75 +4793,75 @@
         <v>13.5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
+      <c r="Z2" s="37">
         <v>92</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="28.9">
       <c r="A3" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4">
         <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -5744,38 +4871,38 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
         <v>92</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="28.9">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>5.5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -5789,17 +4916,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5807,16 +4934,16 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5830,17 +4957,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5855,17 +4982,17 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5876,11 +5003,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5977,15 +5104,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEA9ED-7C04-49CA-B03F-50E5B4621E55}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="V3" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z9"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6074,17 +5201,17 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6096,73 +5223,75 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>23</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
+      <c r="Z2" s="37">
         <v>184</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4">
         <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -6172,17 +5301,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
         <v>184</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
@@ -6190,16 +5319,16 @@
       <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -6213,17 +5342,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -6231,10 +5360,10 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -6246,26 +5375,26 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="28.9">
       <c r="G6" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -6273,26 +5402,26 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="57.6">
       <c r="G7" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -6300,11 +5429,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -6401,15 +5530,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R3" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z7"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6498,17 +5627,17 @@
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6520,67 +5649,67 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="59.45">
       <c r="A3" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -6594,17 +5723,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="40">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
@@ -6612,17 +5741,17 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -6639,17 +5768,17 @@
       <c r="X4" s="1">
         <v>20</v>
       </c>
-      <c r="Y4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="40">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -6657,10 +5786,10 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6674,26 +5803,26 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" s="40">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="30.6">
       <c r="G6" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6703,26 +5832,26 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="40">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="59.45">
       <c r="G7" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -6730,11 +5859,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="40">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -6834,19 +5963,426 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEEC7C6-D1C2-4072-BE05-7D44D58097FE}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.6">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="59.45">
+      <c r="A3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73.900000000000006">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.6">
+      <c r="G6" s="10"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="59.45">
+      <c r="G7" s="10"/>
+      <c r="H7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.45">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.45">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.45">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.45">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.45">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.45">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.45">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.45">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.45">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="18:23" ht="14.45">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="18:23" ht="14.45">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7027,11 +6563,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/dataSources/WSR/FORM_PF.xlsx
+++ b/dataSources/WSR/FORM_PF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{25D770FB-E8F7-4AA6-AA5E-9C7950D11A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBBAA86C-6A74-4842-A688-FE9AA9233119}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67398BB-F3D9-46CE-892B-3D0254128FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="105">
   <si>
     <t>Task Name</t>
   </si>
@@ -559,12 +559,15 @@
   <si>
     <t> Automation Demo</t>
   </si>
+  <si>
+    <t>Project Metrics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,40 +1231,40 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="40.5" customHeight="1">
+    <row r="2" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="46.5" customHeight="1">
+    <row r="3" spans="1:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="54.75" customHeight="1">
+    <row r="4" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -1525,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1551,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1566,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1574,7 +1577,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1582,7 +1585,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1590,7 +1593,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1598,7 +1601,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1606,7 +1609,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1614,7 +1617,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1622,7 +1625,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1630,7 +1633,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1638,7 +1641,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1646,7 +1649,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1668,38 +1671,38 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.85546875" style="2"/>
-    <col min="28" max="28" width="12.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.88671875" style="2"/>
+    <col min="28" max="28" width="12.44140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="19.149999999999999">
+    <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30.6">
+    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A3" s="41" t="s">
         <v>96</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.6">
+    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
@@ -1918,7 +1921,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45">
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -1949,7 +1952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="19.149999999999999">
+    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1974,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.6">
+    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -1990,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1998,7 +2001,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2006,7 +2009,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2014,7 +2017,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2022,7 +2025,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2030,7 +2033,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2038,7 +2041,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2046,7 +2049,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2054,7 +2057,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2062,7 +2065,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2070,7 +2073,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2091,38 +2094,38 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="2"/>
-    <col min="28" max="28" width="12.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="2"/>
+    <col min="28" max="28" width="12.44140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="19.149999999999999">
+    <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="43" t="s">
         <v>99</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30.6">
+    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A3" s="41"/>
       <c r="B3" s="4"/>
       <c r="G3" s="10" t="s">
@@ -2280,7 +2283,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.6">
+    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6"/>
@@ -2318,7 +2321,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45">
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -2349,7 +2352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="19.149999999999999">
+    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2374,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.6">
+    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -2391,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2399,7 +2402,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2407,7 +2410,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2415,7 +2418,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2423,7 +2426,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2431,7 +2434,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2439,7 +2442,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2447,7 +2450,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2455,7 +2458,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2463,7 +2466,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2471,7 +2474,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2488,42 +2491,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8808C-400A-4132-8AE5-04ECCB65431E}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="2"/>
-    <col min="28" max="28" width="12.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="2"/>
+    <col min="28" max="28" width="12.44140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2589,13 +2592,13 @@
       </c>
       <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="52.5">
+    <row r="2" spans="1:29" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A2" s="44" t="s">
         <v>101</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30.75">
+    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A3" s="41"/>
       <c r="B3" s="4"/>
       <c r="D3" s="45" t="s">
@@ -2681,7 +2684,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.75">
+    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6"/>
@@ -2714,7 +2717,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75">
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -2745,7 +2748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="17.25">
+    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -2774,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.75">
+    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2793,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2801,7 +2804,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2809,7 +2812,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2817,7 +2820,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2825,7 +2828,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2833,7 +2836,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2841,7 +2844,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2849,7 +2852,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2857,7 +2860,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2865,7 +2868,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2873,7 +2876,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2897,36 +2900,36 @@
       <selection activeCell="Y7" sqref="Y7:Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="39.75" customHeight="1">
+    <row r="2" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="52.5" customHeight="1">
+    <row r="3" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>56</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="52.5" customHeight="1">
+    <row r="4" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="52.5" customHeight="1">
+    <row r="5" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -3194,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="24"/>
@@ -3219,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -3236,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -3246,7 +3249,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -3254,7 +3257,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -3262,7 +3265,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -3270,7 +3273,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -3278,7 +3281,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3286,7 +3289,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3294,7 +3297,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3302,7 +3305,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3310,7 +3313,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3318,7 +3321,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3343,36 +3346,36 @@
       <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="37.5" customHeight="1">
+    <row r="2" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33" customHeight="1">
+    <row r="3" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>64</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="31.5" customHeight="1">
+    <row r="4" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -3636,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3661,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -3676,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -3684,7 +3687,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -3692,7 +3695,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -3700,7 +3703,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -3708,7 +3711,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -3716,7 +3719,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3724,7 +3727,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3732,7 +3735,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -3740,7 +3743,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -3748,7 +3751,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3756,7 +3759,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3781,37 +3784,37 @@
       <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625"/>
-    <col min="12" max="12" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.140625"/>
-    <col min="18" max="18" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.140625" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375"/>
+    <col min="7" max="7" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375"/>
+    <col min="12" max="12" width="89.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.109375"/>
+    <col min="18" max="18" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.109375" customWidth="1"/>
+    <col min="28" max="28" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>69</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>72</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="D5" s="6" t="s">
@@ -4069,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -4094,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
       <c r="T7" s="29"/>
@@ -4109,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
@@ -4117,7 +4120,7 @@
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
@@ -4125,7 +4128,7 @@
       <c r="V9" s="29"/>
       <c r="W9" s="29"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
@@ -4133,7 +4136,7 @@
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
@@ -4141,7 +4144,7 @@
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
@@ -4149,7 +4152,7 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R13" s="29"/>
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
@@ -4157,7 +4160,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R14" s="29"/>
       <c r="S14" s="29"/>
       <c r="T14" s="29"/>
@@ -4165,7 +4168,7 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="29"/>
@@ -4173,7 +4176,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
@@ -4181,7 +4184,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
     </row>
-    <row r="17" spans="18:23">
+    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -4189,7 +4192,7 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
     </row>
-    <row r="18" spans="18:23">
+    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -4214,38 +4217,38 @@
       <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.85546875" style="2"/>
-    <col min="28" max="28" width="16.85546875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.88671875" style="2"/>
+    <col min="28" max="28" width="16.88671875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1" t="s">
@@ -4454,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -4491,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4516,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -4533,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -4547,7 +4550,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -4559,7 +4562,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -4573,7 +4576,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -4587,7 +4590,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -4599,7 +4602,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -4611,7 +4614,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -4623,7 +4626,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -4635,7 +4638,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -4647,7 +4650,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="18:23">
+    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -4655,7 +4658,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23">
+    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4680,40 +4683,40 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="2"/>
-    <col min="28" max="28" width="13.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="2"/>
+    <col min="28" max="28" width="13.33203125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.899999999999999">
+    <row r="2" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.9">
+    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.9">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
@@ -4930,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.15">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
@@ -4971,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.45">
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4996,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.9">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -5011,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -5019,7 +5022,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -5027,7 +5030,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -5035,7 +5038,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5043,7 +5046,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5051,7 +5054,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5059,7 +5062,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5067,7 +5070,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5075,7 +5078,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5083,7 +5086,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5091,7 +5094,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5115,35 +5118,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
@@ -5356,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="9" t="s">
@@ -5389,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="9" t="s">
         <v>87</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G7" s="9" t="s">
         <v>88</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -5445,7 +5448,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -5453,7 +5456,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -5461,7 +5464,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5469,7 +5472,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5477,7 +5480,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5485,7 +5488,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5493,7 +5496,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5501,7 +5504,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5509,7 +5512,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5517,7 +5520,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5541,35 +5544,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.6">
+    <row r="2" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59.45">
+    <row r="3" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>84</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45">
+    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
@@ -5782,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73.900000000000006">
+    <row r="5" spans="1:29" ht="73.8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10" t="s">
@@ -5817,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.6">
+    <row r="6" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G6" s="10" t="s">
         <v>87</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="59.45">
+    <row r="7" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
       <c r="G7" s="10" t="s">
         <v>88</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -5875,7 +5878,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -5883,7 +5886,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -5891,7 +5894,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5899,7 +5902,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -5907,7 +5910,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -5915,7 +5918,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -5923,7 +5926,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -5931,7 +5934,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -5939,7 +5942,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -5947,7 +5950,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -5971,35 +5974,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6071,7 +6074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.6">
+    <row r="2" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59.45">
+    <row r="3" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45">
+    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="F4" s="1"/>
@@ -6204,7 +6207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73.900000000000006">
+    <row r="5" spans="1:29" ht="73.8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -6235,7 +6238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.6">
+    <row r="6" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6260,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="59.45">
+    <row r="7" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -6277,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45">
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -6285,7 +6288,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="14.45">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -6293,7 +6296,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="14.45">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -6301,7 +6304,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -6309,7 +6312,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6317,7 +6320,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6325,7 +6328,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="14.45">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -6333,7 +6336,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="14.45">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6341,7 +6344,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="14.45">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6349,7 +6352,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23" ht="14.45">
+    <row r="17" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -6357,7 +6360,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23" ht="14.45">
+    <row r="18" spans="18:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -6371,21 +6374,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -6562,14 +6550,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1904288-802C-4509-AC0B-777D55FF85D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1904288-802C-4509-AC0B-777D55FF85D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/FORM_PF.xlsx
+++ b/dataSources/WSR/FORM_PF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67398BB-F3D9-46CE-892B-3D0254128FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DF30DB-902E-4E41-88E7-A46663252AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -2090,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9036F9E-58A1-4F5E-9645-974F659AB416}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="AC1" s="34" t="s">
         <v>22</v>
@@ -2491,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8808C-400A-4132-8AE5-04ECCB65431E}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6374,6 +6374,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -6550,15 +6559,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6566,6 +6566,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1904288-802C-4509-AC0B-777D55FF85D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6584,14 +6592,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}">
   <ds:schemaRefs>

--- a/dataSources/WSR/FORM_PF.xlsx
+++ b/dataSources/WSR/FORM_PF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DF30DB-902E-4E41-88E7-A46663252AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0737F63A-F40B-42BA-B132-5D49DD195DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="99">
   <si>
     <t>Task Name</t>
   </si>
@@ -104,18 +104,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Week Data Type</t>
-  </si>
-  <si>
-    <t>Week Count</t>
-  </si>
-  <si>
-    <t>Total Data Type</t>
-  </si>
-  <si>
-    <t>Total Count</t>
   </si>
   <si>
     <t>1.Standup /Internal/Dev calls</t>
@@ -185,12 +173,6 @@
     <t>No defect logged for the week</t>
   </si>
   <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
-  </si>
-  <si>
     <r>
       <t>2. </t>
     </r>
@@ -249,12 +231,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
     <t>3. Automation</t>
   </si>
   <si>
@@ -264,28 +240,7 @@
     <t>Test cases, Scenarios and Test Plan Preparation &amp;Review</t>
   </si>
   <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
-  </si>
-  <si>
     <t>Meenakshi</t>
-  </si>
-  <si>
-    <t>Automation execution</t>
-  </si>
-  <si>
-    <t>Total automation execution</t>
-  </si>
-  <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total bugs</t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
   </si>
   <si>
     <t>In progress</t>
@@ -560,7 +515,34 @@
     <t> Automation Demo</t>
   </si>
   <si>
-    <t>Project Metrics</t>
+    <t>Activity This Week</t>
+  </si>
+  <si>
+    <t>Count.</t>
+  </si>
+  <si>
+    <t>Project Metrics Since Inception</t>
+  </si>
+  <si>
+    <t>Count..</t>
+  </si>
+  <si>
+    <t>Manual test cases created</t>
+  </si>
+  <si>
+    <t>Manual test cases conducted</t>
+  </si>
+  <si>
+    <t>Automation test cases created</t>
+  </si>
+  <si>
+    <t>Automation test cases processed</t>
+  </si>
+  <si>
+    <t>Bugs identified</t>
+  </si>
+  <si>
+    <t>Automation coverage</t>
   </si>
 </sst>
 </file>
@@ -836,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -911,19 +893,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1231,8 +1202,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1323,101 +1294,101 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1"/>
       <c r="R3" s="1"/>
@@ -1426,49 +1397,49 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" s="16">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>7</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O4" s="1"/>
       <c r="R4" s="1"/>
@@ -1477,25 +1448,25 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -1514,21 +1485,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1540,32 +1511,32 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -1667,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4E417-175E-4C67-8EA4-000367E8D86B}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1761,96 +1732,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="42" t="s">
-        <v>95</v>
+      <c r="L2" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="41" t="s">
-        <v>96</v>
+    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="B3" s="4">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>35</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="42" t="s">
-        <v>97</v>
+      <c r="L3" s="37" t="s">
+        <v>82</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -1860,43 +1831,43 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="42" t="s">
-        <v>98</v>
+      <c r="L4" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1907,21 +1878,21 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
         <v>86</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -1938,17 +1909,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
         <v>25</v>
       </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
         <v>35</v>
       </c>
     </row>
@@ -1963,21 +1934,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -1986,10 +1957,10 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2090,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9036F9E-58A1-4F5E-9645-974F659AB416}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2184,82 +2155,82 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
-        <v>99</v>
+      <c r="A2" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="36"/>
       <c r="B3" s="4"/>
       <c r="G3" s="10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="42"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -2269,34 +2240,34 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6"/>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="42"/>
+      <c r="L4" s="37"/>
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2307,21 +2278,21 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -2338,17 +2309,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
         <v>8</v>
       </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
         <v>43</v>
       </c>
     </row>
@@ -2363,21 +2334,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -2386,11 +2357,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2492,7 +2463,7 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2536,7 +2507,7 @@
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="42" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="23" t="s">
@@ -2585,106 +2556,106 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
-        <v>101</v>
+      <c r="A2" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="46">
+      <c r="D2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="41">
         <v>2</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>102</v>
+      <c r="G2" s="45" t="s">
+        <v>87</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="49"/>
+        <v>40</v>
+      </c>
+      <c r="I2" s="44"/>
       <c r="J2" s="19"/>
-      <c r="L2" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="52">
+      <c r="L2" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="47">
         <v>45302</v>
       </c>
-      <c r="N2" s="49"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="19"/>
       <c r="R2" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="36"/>
       <c r="B3" s="4"/>
-      <c r="D3" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="46">
+      <c r="D3" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="41">
         <v>1</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="L3" s="42"/>
-      <c r="N3" s="51"/>
+      <c r="L3" s="37"/>
+      <c r="N3" s="46"/>
       <c r="R3" s="19"/>
       <c r="S3" s="25"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6"/>
@@ -2703,21 +2674,21 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -2734,17 +2705,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
         <v>30</v>
       </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
         <v>73</v>
       </c>
     </row>
@@ -2763,21 +2734,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2788,11 +2759,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2896,8 +2867,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z10"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2988,100 +2959,100 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="14">
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>30</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J2" s="17"/>
       <c r="L2" s="27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="25"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B3" s="14">
         <v>55</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>35</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J3" s="17"/>
       <c r="L3" s="26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
@@ -3091,48 +3062,48 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" s="14">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>20</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J4" s="18"/>
       <c r="L4" s="26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="1"/>
@@ -3142,17 +3113,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
         <v>0</v>
       </c>
     </row>
@@ -3160,7 +3131,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
@@ -3170,10 +3141,10 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="1"/>
@@ -3183,21 +3154,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="24"/>
@@ -3208,21 +3179,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -3231,11 +3202,11 @@
       <c r="W7" s="1"/>
       <c r="Y7"/>
       <c r="Z7"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -3342,8 +3313,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3434,98 +3405,98 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="11">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="13" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
         <v>86</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B3" s="11">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>15</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -3535,46 +3506,46 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
         <v>86</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B4" s="11">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>18</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="13" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3584,34 +3555,34 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3625,21 +3596,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3650,32 +3621,32 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -3780,8 +3751,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3873,96 +3844,95 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="29">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="29">
         <v>5</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="29"/>
       <c r="L2" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="29"/>
       <c r="R2" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
       <c r="U2" s="29"/>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B3" s="29">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="29">
         <v>16</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="L3" s="13" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="29"/>
@@ -3972,38 +3942,38 @@
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B4" s="29">
         <v>31</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" s="29">
         <v>16</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
@@ -4017,17 +3987,17 @@
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4035,16 +4005,16 @@
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -4058,17 +4028,17 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4083,17 +4053,17 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4104,11 +4074,11 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4213,8 +4183,8 @@
   </sheetPr>
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4307,96 +4277,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4">
         <v>23.5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -4406,17 +4376,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>86</v>
       </c>
     </row>
@@ -4424,7 +4394,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>10.5</v>
@@ -4443,17 +4413,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4461,7 +4431,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -4480,17 +4450,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4505,17 +4475,17 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4528,11 +4498,11 @@
       <c r="W7" s="1"/>
       <c r="Y7"/>
       <c r="Z7"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4679,8 +4649,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4775,96 +4745,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4">
         <v>13.5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
         <v>92</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4">
         <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -4874,38 +4844,38 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
         <v>92</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>5.5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4919,34 +4889,34 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4960,17 +4930,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
         <v>0</v>
       </c>
     </row>
@@ -4985,32 +4955,32 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -5114,8 +5084,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5205,96 +5175,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>23</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
         <v>184</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4">
         <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -5304,34 +5274,34 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
         <v>184</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -5345,28 +5315,28 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -5378,26 +5348,26 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G6" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -5405,26 +5375,26 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G7" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -5432,11 +5402,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -5540,8 +5510,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5631,88 +5601,88 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4">
         <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -5726,35 +5696,35 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5771,28 +5741,28 @@
       <c r="X4" s="1">
         <v>20</v>
       </c>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="73.8" x14ac:dyDescent="0.45">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5806,26 +5776,26 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G6" s="10" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5835,26 +5805,26 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G7" s="10" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -5862,11 +5832,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -5970,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEEC7C6-D1C2-4072-BE05-7D44D58097FE}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R2" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6061,79 +6031,79 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1"/>
+      <c r="AB1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="37">
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35"/>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4">
         <v>17</v>
@@ -6143,10 +6113,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -6156,21 +6126,21 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="37">
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="35"/>
+      <c r="AB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="34">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="F4" s="1"/>
@@ -6179,10 +6149,10 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -6193,21 +6163,21 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="37">
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="34">
         <v>86</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="37">
+      <c r="AA4" s="35"/>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="34">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -6224,21 +6194,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="37">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="34">
         <v>10</v>
       </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="37">
+      <c r="AA5" s="35"/>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="34">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6249,21 +6219,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35"/>
+      <c r="AB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -6272,11 +6242,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="37">
+      <c r="AA7" s="35"/>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="34">
         <v>0</v>
       </c>
     </row>
@@ -6383,6 +6353,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -6559,12 +6535,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}">
   <ds:schemaRefs>
@@ -6574,6 +6544,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1904288-802C-4509-AC0B-777D55FF85D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6590,13 +6569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/FORM_PF.xlsx
+++ b/dataSources/WSR/FORM_PF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0737F63A-F40B-42BA-B132-5D49DD195DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67398BB-F3D9-46CE-892B-3D0254128FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="105">
   <si>
     <t>Task Name</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Week Data Type</t>
+  </si>
+  <si>
+    <t>Week Count</t>
+  </si>
+  <si>
+    <t>Total Data Type</t>
+  </si>
+  <si>
+    <t>Total Count</t>
   </si>
   <si>
     <t>1.Standup /Internal/Dev calls</t>
@@ -173,6 +185,12 @@
     <t>No defect logged for the week</t>
   </si>
   <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
     <r>
       <t>2. </t>
     </r>
@@ -231,6 +249,12 @@
     <t>TBD</t>
   </si>
   <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
     <t>3. Automation</t>
   </si>
   <si>
@@ -240,7 +264,28 @@
     <t>Test cases, Scenarios and Test Plan Preparation &amp;Review</t>
   </si>
   <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
     <t>Meenakshi</t>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
   </si>
   <si>
     <t>In progress</t>
@@ -515,34 +560,7 @@
     <t> Automation Demo</t>
   </si>
   <si>
-    <t>Activity This Week</t>
-  </si>
-  <si>
-    <t>Count.</t>
-  </si>
-  <si>
-    <t>Project Metrics Since Inception</t>
-  </si>
-  <si>
-    <t>Count..</t>
-  </si>
-  <si>
-    <t>Manual test cases created</t>
-  </si>
-  <si>
-    <t>Manual test cases conducted</t>
-  </si>
-  <si>
-    <t>Automation test cases created</t>
-  </si>
-  <si>
-    <t>Automation test cases processed</t>
-  </si>
-  <si>
-    <t>Bugs identified</t>
-  </si>
-  <si>
-    <t>Automation coverage</t>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
@@ -818,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -893,8 +911,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1202,8 +1231,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1294,101 +1323,101 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O3" s="1"/>
       <c r="R3" s="1"/>
@@ -1397,49 +1426,49 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B4" s="16">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>7</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1"/>
       <c r="R4" s="1"/>
@@ -1448,25 +1477,25 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -1485,21 +1514,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1511,32 +1540,32 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1638,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4E417-175E-4C67-8EA4-000367E8D86B}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1732,96 +1761,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="37" t="s">
-        <v>80</v>
+      <c r="L2" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="36" t="s">
-        <v>81</v>
+    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+      <c r="A3" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="B3" s="4">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>35</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="37" t="s">
-        <v>82</v>
+      <c r="L3" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -1831,43 +1860,43 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="37" t="s">
-        <v>83</v>
+      <c r="L4" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1878,21 +1907,21 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
         <v>86</v>
       </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -1909,17 +1938,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
         <v>25</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>35</v>
       </c>
     </row>
@@ -1934,21 +1963,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -1957,10 +1986,10 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2061,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9036F9E-58A1-4F5E-9645-974F659AB416}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2155,82 +2184,82 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
-        <v>84</v>
+      <c r="A2" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="36"/>
+    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+      <c r="A3" s="41"/>
       <c r="B3" s="4"/>
       <c r="G3" s="10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="37"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -2240,34 +2269,34 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6"/>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="37"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2278,21 +2307,21 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -2309,17 +2338,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
         <v>8</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>43</v>
       </c>
     </row>
@@ -2334,21 +2363,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -2357,11 +2386,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2462,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8808C-400A-4132-8AE5-04ECCB65431E}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2507,7 +2536,7 @@
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="23" t="s">
@@ -2556,106 +2585,106 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>86</v>
+      <c r="A2" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="41">
+      <c r="D2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="46">
         <v>2</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>87</v>
+      <c r="G2" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="44"/>
+        <v>55</v>
+      </c>
+      <c r="I2" s="49"/>
       <c r="J2" s="19"/>
-      <c r="L2" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="47">
+      <c r="L2" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="52">
         <v>45302</v>
       </c>
-      <c r="N2" s="44"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="19"/>
       <c r="R2" s="19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="36"/>
+    <row r="3" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
+      <c r="A3" s="41"/>
       <c r="B3" s="4"/>
-      <c r="D3" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="41">
+      <c r="D3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="46">
         <v>1</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="46"/>
+      <c r="L3" s="42"/>
+      <c r="N3" s="51"/>
       <c r="R3" s="19"/>
       <c r="S3" s="25"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6"/>
@@ -2674,21 +2703,21 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -2705,17 +2734,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
         <v>30</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>73</v>
       </c>
     </row>
@@ -2734,21 +2763,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2759,11 +2788,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2867,8 +2896,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2959,100 +2988,100 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14">
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>30</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J2" s="17"/>
       <c r="L2" s="27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="25"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B3" s="14">
         <v>55</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>35</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J3" s="17"/>
       <c r="L3" s="26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
@@ -3062,48 +3091,48 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>20</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J4" s="18"/>
       <c r="L4" s="26" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="1"/>
@@ -3113,17 +3142,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +3160,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
@@ -3141,10 +3170,10 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="L5" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="1"/>
@@ -3154,21 +3183,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="24"/>
@@ -3179,21 +3208,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -3202,11 +3231,11 @@
       <c r="W7" s="1"/>
       <c r="Y7"/>
       <c r="Z7"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3313,8 +3342,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3405,98 +3434,98 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="13" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
         <v>86</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B3" s="11">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>15</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -3506,46 +3535,46 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
         <v>86</v>
       </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B4" s="11">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>18</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3555,34 +3584,34 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3596,21 +3625,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3621,32 +3650,32 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3751,8 +3780,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3844,95 +3873,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="29">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="29">
         <v>5</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="29"/>
       <c r="L2" s="13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="29"/>
       <c r="R2" s="29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
       <c r="U2" s="29"/>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B3" s="29">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="29">
         <v>16</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="L3" s="13" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="29"/>
@@ -3942,38 +3972,38 @@
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B4" s="29">
         <v>31</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" s="29">
         <v>16</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
@@ -3987,17 +4017,17 @@
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4005,16 +4035,16 @@
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -4028,17 +4058,17 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4053,17 +4083,17 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4074,11 +4104,11 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4183,8 +4213,8 @@
   </sheetPr>
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4277,96 +4307,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
-      <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4">
         <v>23.5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -4376,17 +4406,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>86</v>
       </c>
     </row>
@@ -4394,7 +4424,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>10.5</v>
@@ -4413,17 +4443,17 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4431,7 +4461,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -4450,17 +4480,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4475,17 +4505,17 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4498,11 +4528,11 @@
       <c r="W7" s="1"/>
       <c r="Y7"/>
       <c r="Z7"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4649,8 +4679,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4745,96 +4775,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>13.5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
         <v>92</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4">
         <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -4844,38 +4874,38 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
         <v>92</v>
       </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4">
         <v>5.5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4889,34 +4919,34 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4930,17 +4960,17 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4955,32 +4985,32 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5084,8 +5114,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5175,96 +5205,96 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>23</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
         <v>184</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4">
         <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -5274,34 +5304,34 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
         <v>184</v>
       </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -5315,28 +5345,28 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="9" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -5348,26 +5378,26 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="9" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -5375,26 +5405,26 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G7" s="9" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -5402,11 +5432,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5510,8 +5540,8 @@
   </sheetPr>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5601,88 +5631,88 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -5696,35 +5726,35 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="10" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5741,28 +5771,28 @@
       <c r="X4" s="1">
         <v>20</v>
       </c>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73.8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5776,26 +5806,26 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G6" s="10" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -5805,26 +5835,26 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
       <c r="G7" s="10" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -5832,11 +5862,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5940,8 +5970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEEC7C6-D1C2-4072-BE05-7D44D58097FE}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+    <sheetView topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6031,79 +6061,79 @@
         <v>18</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="L2" s="10" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="34">
+      <c r="Y2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>17</v>
@@ -6113,10 +6143,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="L3" s="10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
@@ -6126,21 +6156,21 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="34">
+      <c r="Y3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="37">
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="45" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="F4" s="1"/>
@@ -6149,10 +6179,10 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -6163,21 +6193,21 @@
       <c r="U4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="34">
+      <c r="Y4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="37">
         <v>86</v>
       </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC4" s="34">
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="37">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="73.8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="10"/>
@@ -6194,21 +6224,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="34">
+      <c r="Y5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="37">
         <v>10</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="37">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" ht="30.6" x14ac:dyDescent="0.45">
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6219,21 +6249,21 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35"/>
-      <c r="AB6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="Y6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="59.4" x14ac:dyDescent="0.45">
       <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="R7" s="1"/>
@@ -6242,11 +6272,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="34">
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -6344,21 +6374,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -6535,24 +6550,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1904288-802C-4509-AC0B-777D55FF85D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6569,4 +6582,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE68998D-0B70-4816-B083-91DF4DE92BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF172-C58A-4845-A66F-9F906CAEEAE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>